--- a/matchLeagueEuro2016.xlsx
+++ b/matchLeagueEuro2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0DE338-3752-42A4-88FF-343BDC92E6FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387F899-01C1-49FB-B035-A0E0594F7F59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8698" xr2:uid="{08337BA2-47F5-4B03-A043-CE74ED2B7BE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1B7A5-33BB-485A-A0AE-5D23F6E0D72F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -415,6 +415,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
